--- a/EGE_krylov20_2024/22/22var01.xlsx
+++ b/EGE_krylov20_2024/22/22var01.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2023\От авторов\22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deveden\Documents\UnifiedStateExamination_IT\EGE_krylov20_2024\22\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2857A7-6DD2-4BB6-AB82-A4A01ED29693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -35,20 +45,20 @@
     <t>ID процесса(ов) A</t>
   </si>
   <si>
-    <t>1; 2; 3</t>
+    <t>минимальное время до завершения связанного процесса</t>
   </si>
   <si>
-    <t>4; 7</t>
+    <t>минимальное время до завершения</t>
   </si>
   <si>
-    <t>8; 9</t>
+    <t>результат:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,19 +67,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -78,11 +120,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -362,164 +442,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <f>MAX(G3:I3)+B3</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="12">
+        <f>VLOOKUP(D3,$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:I3" si="0">VLOOKUP(E3,$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="1">MAX(G4:I4)+B4</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G14" si="2">VLOOKUP(D4,$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H15" si="3">VLOOKUP(E4,$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I15" si="4">VLOOKUP(F4,$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="I6" s="12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
+      <c r="C15" s="17">
+        <f>MAX(C2:C14)</f>
+        <v>18</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>